--- a/Rmarkdown/Datasets/portugal_company_shares.xlsx
+++ b/Rmarkdown/Datasets/portugal_company_shares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\busop\All Files - ORIGINAL FILES OF DESKTOP LINKS\Github\market-analysis-2024-2025\Rmarkdown\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E23F00-B5EC-4208-B6C5-8DA44C0A42D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B43596-205B-44C4-97A8-31661DABB728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6385455E-06E9-415F-8002-52ABC03410BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="92">
   <si>
     <t>Portugal</t>
   </si>
@@ -171,6 +171,147 @@
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>Confectionery</t>
+  </si>
+  <si>
+    <t>Ferrero &amp; related parties</t>
+  </si>
+  <si>
+    <t>Nestlé SA</t>
+  </si>
+  <si>
+    <t>Perfetti Van Melle Group</t>
+  </si>
+  <si>
+    <t>Mars Inc</t>
+  </si>
+  <si>
+    <t>Imperial Produtos Alimentares SA</t>
+  </si>
+  <si>
+    <t>Lusiteca - Transformação e Embalagem Produtos Alimentares SA</t>
+  </si>
+  <si>
+    <t>Lotte Group</t>
+  </si>
+  <si>
+    <t>Chocoladefabriken Lindt &amp; Sprüngli AG</t>
+  </si>
+  <si>
+    <t>Cémoi SA</t>
+  </si>
+  <si>
+    <t>August Storck KG</t>
+  </si>
+  <si>
+    <t>Interdoces Produtos Alimentares Lda</t>
+  </si>
+  <si>
+    <t>Groupe CPK SA</t>
+  </si>
+  <si>
+    <t>Avienense</t>
+  </si>
+  <si>
+    <t>Fábrica de Rebucados Bayard Lda</t>
+  </si>
+  <si>
+    <t>Haribo GmbH &amp; Co KG</t>
+  </si>
+  <si>
+    <t>Lacasa SA (Grupo)</t>
+  </si>
+  <si>
+    <t>Vidal Golosinas SA</t>
+  </si>
+  <si>
+    <t>Hussel Chocolates e Confeitaria SA</t>
+  </si>
+  <si>
+    <t>Kaoka SA</t>
+  </si>
+  <si>
+    <t>Ricola AG</t>
+  </si>
+  <si>
+    <t>Confeitaria da Ajuda Ltda</t>
+  </si>
+  <si>
+    <t>Crispo Srl</t>
+  </si>
+  <si>
+    <t>Katjes Group</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Unilever Group</t>
+  </si>
+  <si>
+    <t>General Mills Inc</t>
+  </si>
+  <si>
+    <t>Kalise Menorquina SA (Grupo)</t>
+  </si>
+  <si>
+    <t>Gelgurte-Industrias Alimentares Lda</t>
+  </si>
+  <si>
+    <t>Fabridoce - Doces Regionais Lda</t>
+  </si>
+  <si>
+    <t>Savoury Snacks</t>
+  </si>
+  <si>
+    <t>PepsiCo Inc</t>
+  </si>
+  <si>
+    <t>Tyson Foods Inc</t>
+  </si>
+  <si>
+    <t>Intersnack Group GmbH &amp; Co KG</t>
+  </si>
+  <si>
+    <t>Seeberger GmbH</t>
+  </si>
+  <si>
+    <t>A Saloinha-Produtos Alimentares Lda</t>
+  </si>
+  <si>
+    <t>Frutorra Pimenta Lda</t>
+  </si>
+  <si>
+    <t>Raimundo &amp; Maia Lda</t>
+  </si>
+  <si>
+    <t>Huober-BREZEL GmbH &amp; Co KG</t>
+  </si>
+  <si>
+    <t>Soller Ltd Inc</t>
+  </si>
+  <si>
+    <t>Cachola e Muacho, Lda</t>
+  </si>
+  <si>
+    <t>Valente Marques SA</t>
+  </si>
+  <si>
+    <t>Grefusa SL</t>
+  </si>
+  <si>
+    <t>A Centazzi Lda</t>
+  </si>
+  <si>
+    <t>Amplify Snack Brands Inc</t>
+  </si>
+  <si>
+    <t>Danish Crown Amba</t>
+  </si>
+  <si>
+    <t>Tyrrells Potato Crisps Ltd</t>
   </si>
 </sst>
 </file>
@@ -180,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##,#00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +341,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF595959"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkVertical">
+        <fgColor rgb="FF5D87A1"/>
+        <bgColor rgb="FF5D87A1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -218,7 +384,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -229,8 +395,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -244,13 +428,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="10">
     <cellStyle name="DescriptorColumnStyle" xfId="1" xr:uid="{295FE4D3-AC1A-4132-843C-9A1484674AFD}"/>
+    <cellStyle name="HeaderStyle" xfId="5" xr:uid="{9FE10AB3-5B6F-4E46-85CE-FF582827CA8B}"/>
     <cellStyle name="HyphenStyle" xfId="3" xr:uid="{765ACB73-3988-4BCE-8E9D-867DD6F40334}"/>
+    <cellStyle name="NanStyle" xfId="8" xr:uid="{D44D315F-1EF8-4855-BCE1-299AC7E235B9}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2" xfId="4" xr:uid="{A2857022-9A9E-4DBC-882A-A3CAA05E3023}"/>
+    <cellStyle name="NumberForecastStyle" xfId="7" xr:uid="{F01DDDB4-BEEC-4A38-91E2-37B7FA09655B}"/>
     <cellStyle name="NumberStyle" xfId="2" xr:uid="{EC7C67FD-12B5-42A8-936B-E03866C9FF0B}"/>
+    <cellStyle name="RankingStyle" xfId="6" xr:uid="{0C69049A-B03F-4E33-9B46-D7AB254ADDFB}"/>
+    <cellStyle name="SolidBackgroundStyle" xfId="9" xr:uid="{54DE2476-3653-4AED-9F82-8B85DECA69D2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -582,15 +783,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF05149-0254-4E5F-8779-EFB0B9E0DA6E}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -634,7 +842,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +886,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +930,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +974,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +1018,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,9 +1061,8 @@
       <c r="N6" s="3">
         <v>2.1</v>
       </c>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +1106,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +1150,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1194,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1370,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1414,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1458,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2260,6 +2467,3042 @@
         <v>100</v>
       </c>
       <c r="N38" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7">
+        <v>13</v>
+      </c>
+      <c r="F39" s="7">
+        <v>13</v>
+      </c>
+      <c r="G39" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="I39" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="J39" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="K39" s="7">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L39" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="M39" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="N39" s="7">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="F40" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="G40" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="H40" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="I40" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="J40" s="7">
+        <v>8</v>
+      </c>
+      <c r="K40" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="L40" s="7">
+        <v>8</v>
+      </c>
+      <c r="M40" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="N40" s="7">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="7">
+        <v>15</v>
+      </c>
+      <c r="F41" s="7">
+        <v>15</v>
+      </c>
+      <c r="G41" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="H41" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="I41" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="J41" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="K41" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="L41" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="M41" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="N41" s="7">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="F42" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G42" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="J42" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K42" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L42" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M42" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="N42" s="7">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="F43" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="G43" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="H43" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="I43" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="J43" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K43" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L43" s="7">
+        <v>5</v>
+      </c>
+      <c r="M43" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="N43" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="F44" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="G44" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="H44" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="I44" s="7">
+        <v>4</v>
+      </c>
+      <c r="J44" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="K44" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="L44" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="M44" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="N44" s="7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="F45" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="G45" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="H45" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="I45" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J45" s="7">
+        <v>3</v>
+      </c>
+      <c r="K45" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="L45" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="M45" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="N45" s="7">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F46" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="G46" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="H46" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I46" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J46" s="7">
+        <v>2</v>
+      </c>
+      <c r="K46" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="L46" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="M46" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="N46" s="7">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J47" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="K47" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="L47" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J48" s="7">
+        <v>1</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="L48" s="7">
+        <v>1</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+      <c r="L49" s="7">
+        <v>1</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N57" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K58" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="F64" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="G64" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="H64" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="I64" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="J64" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="K64" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="L64" s="7">
+        <v>10.9</v>
+      </c>
+      <c r="M64" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="N64" s="7">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="F65" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="G65" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="H65" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="I65" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="J65" s="7">
+        <v>29.1</v>
+      </c>
+      <c r="K65" s="7">
+        <v>30</v>
+      </c>
+      <c r="L65" s="7">
+        <v>28.4</v>
+      </c>
+      <c r="M65" s="7">
+        <v>27</v>
+      </c>
+      <c r="N65" s="7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="7">
+        <v>100</v>
+      </c>
+      <c r="F66" s="7">
+        <v>100</v>
+      </c>
+      <c r="G66" s="7">
+        <v>100</v>
+      </c>
+      <c r="H66" s="7">
+        <v>100</v>
+      </c>
+      <c r="I66" s="7">
+        <v>100</v>
+      </c>
+      <c r="J66" s="7">
+        <v>100</v>
+      </c>
+      <c r="K66" s="7">
+        <v>100</v>
+      </c>
+      <c r="L66" s="7">
+        <v>100</v>
+      </c>
+      <c r="M66" s="7">
+        <v>100</v>
+      </c>
+      <c r="N66" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="7">
+        <v>61.4</v>
+      </c>
+      <c r="F67" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="G67" s="7">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="H67" s="7">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="I67" s="7">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="J67" s="7">
+        <v>67.3</v>
+      </c>
+      <c r="K67" s="7">
+        <v>66.8</v>
+      </c>
+      <c r="L67" s="7">
+        <v>67</v>
+      </c>
+      <c r="M67" s="7">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="N67" s="7">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="F68" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="G68" s="7">
+        <v>7</v>
+      </c>
+      <c r="H68" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I68" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="J68" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="K68" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="L68" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="M68" s="7">
+        <v>6</v>
+      </c>
+      <c r="N68" s="7">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="7">
+        <v>4</v>
+      </c>
+      <c r="F69" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G69" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="H69" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I69" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="J69" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="K69" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L69" s="7">
+        <v>4</v>
+      </c>
+      <c r="M69" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="N69" s="7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F70" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G70" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H70" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="I70" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="J70" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="K70" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L70" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M70" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="N70" s="7">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J71" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K71" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="L71" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="M71" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="N71" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K72" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N72" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J73" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M73" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N73" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="F74" s="7">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G74" s="7">
+        <v>15.9</v>
+      </c>
+      <c r="H74" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="I74" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="J74" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="K74" s="7">
+        <v>13.8</v>
+      </c>
+      <c r="L74" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="M74" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="N74" s="7">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="F75" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G75" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="H75" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="I75" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="J75" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K75" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="L75" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="M75" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="N75" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="7">
+        <v>100</v>
+      </c>
+      <c r="F76" s="7">
+        <v>100</v>
+      </c>
+      <c r="G76" s="7">
+        <v>100</v>
+      </c>
+      <c r="H76" s="7">
+        <v>100</v>
+      </c>
+      <c r="I76" s="7">
+        <v>100</v>
+      </c>
+      <c r="J76" s="7">
+        <v>100</v>
+      </c>
+      <c r="K76" s="7">
+        <v>100</v>
+      </c>
+      <c r="L76" s="7">
+        <v>100</v>
+      </c>
+      <c r="M76" s="7">
+        <v>100</v>
+      </c>
+      <c r="N76" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="7">
+        <v>20</v>
+      </c>
+      <c r="F77" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="G77" s="7">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H77" s="7">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I77" s="7">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J77" s="7">
+        <v>18.7</v>
+      </c>
+      <c r="K77" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="L77" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M77" s="7">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N77" s="7">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="F78" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="G78" s="7">
+        <v>5</v>
+      </c>
+      <c r="H78" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="I78" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="J78" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="K78" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="L78" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M78" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N78" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H79" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I79" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="J79" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K79" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="L79" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="M79" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="N79" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="F80" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G80" s="7">
+        <v>3</v>
+      </c>
+      <c r="H80" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="I80" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="J80" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="K80" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="L80" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="M80" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="N80" s="7">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="F81" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="G81" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="H81" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="I81" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="J81" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="K81" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="L81" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="M81" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="N81" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N82" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="G83" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="H83" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="I83" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="J83" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="K83" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="L83" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M83" s="7">
+        <v>1</v>
+      </c>
+      <c r="N83" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K84" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="M84" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H85" s="7">
+        <v>1</v>
+      </c>
+      <c r="I85" s="7">
+        <v>1</v>
+      </c>
+      <c r="J85" s="7">
+        <v>1</v>
+      </c>
+      <c r="K85" s="7">
+        <v>1</v>
+      </c>
+      <c r="L85" s="7">
+        <v>1</v>
+      </c>
+      <c r="M85" s="7">
+        <v>1</v>
+      </c>
+      <c r="N85" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J86" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K86" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="M86" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N86" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="J87" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="K87" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N87" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="7">
+        <v>2</v>
+      </c>
+      <c r="F88" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="J88" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="K88" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="L88" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="M88" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N88" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J89" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K89" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L89" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M89" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N89" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="J90" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K90" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M90" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N90" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J91" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K91" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L91" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M91" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N91" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J92" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K92" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M92" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N92" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H93" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I93" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J93" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K93" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L93" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M93" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N93" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G94" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H94" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I94" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J94" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K94" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L94" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M94" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N94" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F95" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G95" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H95" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I95" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J95" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K95" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L95" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M95" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N95" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G96" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H96" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I96" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J96" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K96" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L96" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M96" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N96" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G97" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H97" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I97" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J97" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K97" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M97" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N97" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="7">
+        <v>2</v>
+      </c>
+      <c r="F98" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I98" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J98" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K98" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L98" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M98" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N98" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G99" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H99" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I99" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J99" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K99" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L99" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M99" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N99" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H100" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J100" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K100" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L100" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M100" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N100" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="G101" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N102" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="7">
+        <v>2</v>
+      </c>
+      <c r="F103" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G103" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="H103" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="I103" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="J103" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="K103" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="L103" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N103" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N104" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F105" s="7">
+        <v>41.2</v>
+      </c>
+      <c r="G105" s="7">
+        <v>41.2</v>
+      </c>
+      <c r="H105" s="7">
+        <v>40.9</v>
+      </c>
+      <c r="I105" s="7">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="J105" s="7">
+        <v>42.4</v>
+      </c>
+      <c r="K105" s="7">
+        <v>42.7</v>
+      </c>
+      <c r="L105" s="7">
+        <v>43.3</v>
+      </c>
+      <c r="M105" s="7">
+        <v>44.1</v>
+      </c>
+      <c r="N105" s="7">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="F106" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="G106" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="H106" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="I106" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="J106" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="K106" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="L106" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="M106" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="N106" s="7">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="7">
+        <v>100</v>
+      </c>
+      <c r="F107" s="7">
+        <v>100</v>
+      </c>
+      <c r="G107" s="7">
+        <v>100</v>
+      </c>
+      <c r="H107" s="7">
+        <v>100</v>
+      </c>
+      <c r="I107" s="7">
+        <v>100</v>
+      </c>
+      <c r="J107" s="7">
+        <v>100</v>
+      </c>
+      <c r="K107" s="7">
+        <v>100</v>
+      </c>
+      <c r="L107" s="7">
+        <v>100</v>
+      </c>
+      <c r="M107" s="7">
+        <v>100</v>
+      </c>
+      <c r="N107" s="7">
         <v>100</v>
       </c>
     </row>
